--- a/Code/Results/Cases/Case_9_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_40/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.70359277506738</v>
+        <v>14.89443678923587</v>
       </c>
       <c r="C2">
-        <v>6.434344303210089</v>
+        <v>6.524663057412694</v>
       </c>
       <c r="D2">
-        <v>4.06366508353785</v>
+        <v>4.308534444552188</v>
       </c>
       <c r="E2">
-        <v>7.056887255002437</v>
+        <v>7.000859692820249</v>
       </c>
       <c r="F2">
-        <v>30.13170255013387</v>
+        <v>28.48386590531059</v>
       </c>
       <c r="G2">
-        <v>38.97114499118974</v>
+        <v>36.17461233444693</v>
       </c>
       <c r="H2">
-        <v>3.716157114715995</v>
+        <v>3.489636338912231</v>
       </c>
       <c r="I2">
-        <v>4.420467541481194</v>
+        <v>4.135553240060557</v>
       </c>
       <c r="J2">
-        <v>13.0252963809264</v>
+        <v>12.42135137042257</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>5.854767660610446</v>
+        <v>15.55680518798123</v>
       </c>
       <c r="M2">
-        <v>11.83849512298066</v>
+        <v>14.26554515247195</v>
       </c>
       <c r="N2">
-        <v>6.508423357705444</v>
+        <v>5.744959909816195</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.66221121990994</v>
       </c>
       <c r="P2">
-        <v>14.93505471044747</v>
+        <v>6.847886245641089</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>14.45479204583479</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.8187614342772</v>
+        <v>14.05802006985694</v>
       </c>
       <c r="C3">
-        <v>6.147857500060331</v>
+        <v>6.141000373411183</v>
       </c>
       <c r="D3">
-        <v>3.904125317354272</v>
+        <v>4.137368531848835</v>
       </c>
       <c r="E3">
-        <v>6.876362501093237</v>
+        <v>6.838657393651997</v>
       </c>
       <c r="F3">
-        <v>29.59701680093137</v>
+        <v>28.06455003390744</v>
       </c>
       <c r="G3">
-        <v>38.17177740744386</v>
+        <v>35.64119139624064</v>
       </c>
       <c r="H3">
-        <v>3.946837418146582</v>
+        <v>3.700232457797434</v>
       </c>
       <c r="I3">
-        <v>4.608144606451577</v>
+        <v>4.299171233410222</v>
       </c>
       <c r="J3">
-        <v>12.94642207568347</v>
+        <v>12.33317975763351</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>5.790530703426384</v>
+        <v>15.58097304499364</v>
       </c>
       <c r="M3">
-        <v>11.19472784980272</v>
+        <v>14.14132497091143</v>
       </c>
       <c r="N3">
-        <v>6.315309821952439</v>
+        <v>5.690938809364648</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.0218721265013</v>
       </c>
       <c r="P3">
-        <v>15.06026462216305</v>
+        <v>6.647215389977543</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>14.59113777603264</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.24757047961442</v>
+        <v>13.51617541716756</v>
       </c>
       <c r="C4">
-        <v>5.966718141308881</v>
+        <v>5.896996710123537</v>
       </c>
       <c r="D4">
-        <v>3.803827916082521</v>
+        <v>4.02995936588847</v>
       </c>
       <c r="E4">
-        <v>6.762210913574082</v>
+        <v>6.736153092065271</v>
       </c>
       <c r="F4">
-        <v>29.26950941034546</v>
+        <v>27.80766256164389</v>
       </c>
       <c r="G4">
-        <v>37.68026974642291</v>
+        <v>35.3177737274228</v>
       </c>
       <c r="H4">
-        <v>4.093669383651631</v>
+        <v>3.83438540414168</v>
       </c>
       <c r="I4">
-        <v>4.72814850581312</v>
+        <v>4.404117251704102</v>
       </c>
       <c r="J4">
-        <v>12.90005939175388</v>
+        <v>12.27877781714697</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.749640442315704</v>
+        <v>15.59244824338909</v>
       </c>
       <c r="M4">
-        <v>10.78210424806713</v>
+        <v>14.08043296362099</v>
       </c>
       <c r="N4">
-        <v>6.194567042043586</v>
+        <v>5.656429887641564</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.61040046135589</v>
       </c>
       <c r="P4">
-        <v>15.13802561304645</v>
+        <v>6.522107887907246</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>14.67578816080127</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.00170562003859</v>
+        <v>13.28229238839545</v>
       </c>
       <c r="C5">
-        <v>5.896276511416572</v>
+        <v>5.801260025468268</v>
       </c>
       <c r="D5">
-        <v>3.763913594775148</v>
+        <v>3.987105385057758</v>
       </c>
       <c r="E5">
-        <v>6.713998286827517</v>
+        <v>6.692846678006948</v>
       </c>
       <c r="F5">
-        <v>29.12587902316849</v>
+        <v>27.69325293125601</v>
       </c>
       <c r="G5">
-        <v>37.46193166252399</v>
+        <v>35.17018547430498</v>
       </c>
       <c r="H5">
-        <v>4.155265381478694</v>
+        <v>3.890691960940288</v>
       </c>
       <c r="I5">
-        <v>4.780643160203012</v>
+        <v>4.450763952497256</v>
       </c>
       <c r="J5">
-        <v>12.87832668978903</v>
+        <v>12.2532612497237</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.731899477209232</v>
+        <v>15.58949873380734</v>
       </c>
       <c r="M5">
-        <v>10.6085091489455</v>
+        <v>14.05502847623584</v>
       </c>
       <c r="N5">
-        <v>6.146248960898474</v>
+        <v>5.641390655669517</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.43704992257458</v>
       </c>
       <c r="P5">
-        <v>15.16803530675065</v>
+        <v>6.47202229433419</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>14.70897734522036</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.95282568614723</v>
+        <v>13.23559699936928</v>
       </c>
       <c r="C6">
-        <v>5.890237061056023</v>
+        <v>5.792317167460193</v>
       </c>
       <c r="D6">
-        <v>3.759087915461104</v>
+        <v>3.98172038786743</v>
       </c>
       <c r="E6">
-        <v>6.704857848964576</v>
+        <v>6.684604231131066</v>
       </c>
       <c r="F6">
-        <v>29.08923288969711</v>
+        <v>27.66212038765232</v>
       </c>
       <c r="G6">
-        <v>37.40360031491014</v>
+        <v>35.12511256854832</v>
       </c>
       <c r="H6">
-        <v>4.166105699966901</v>
+        <v>3.900608851757349</v>
       </c>
       <c r="I6">
-        <v>4.792456826052706</v>
+        <v>4.462081476990498</v>
       </c>
       <c r="J6">
-        <v>12.87064424962688</v>
+        <v>12.24500052054936</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.728060519936707</v>
+        <v>15.58068869409291</v>
       </c>
       <c r="M6">
-        <v>10.57791692938197</v>
+        <v>14.04552879025014</v>
       </c>
       <c r="N6">
-        <v>6.139890590817133</v>
+        <v>5.638093590916927</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.40652078854611</v>
       </c>
       <c r="P6">
-        <v>15.17070381828654</v>
+        <v>6.465294014360085</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>14.71261242337086</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.22381120669229</v>
+        <v>13.48753750498282</v>
       </c>
       <c r="C7">
-        <v>5.981214759453384</v>
+        <v>5.908038113869812</v>
       </c>
       <c r="D7">
-        <v>3.808226126820576</v>
+        <v>4.039234125139551</v>
       </c>
       <c r="E7">
-        <v>6.758628740066692</v>
+        <v>6.734246245813745</v>
       </c>
       <c r="F7">
-        <v>29.23279739193141</v>
+        <v>27.75399162714888</v>
       </c>
       <c r="G7">
-        <v>37.61745713131736</v>
+        <v>35.32160586963639</v>
       </c>
       <c r="H7">
-        <v>4.095925802203508</v>
+        <v>3.837180299516209</v>
       </c>
       <c r="I7">
-        <v>4.736865972322171</v>
+        <v>4.414687670887519</v>
       </c>
       <c r="J7">
-        <v>12.88859615556843</v>
+        <v>12.22417527012453</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.74704524070772</v>
+        <v>15.56038504943664</v>
       </c>
       <c r="M7">
-        <v>10.77570352997156</v>
+        <v>14.05776980121958</v>
       </c>
       <c r="N7">
-        <v>6.198497230253341</v>
+        <v>5.653662832000197</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.59763598262752</v>
       </c>
       <c r="P7">
-        <v>15.13212227508874</v>
+        <v>6.525402902097412</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>14.66859982663785</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.37906539713725</v>
+        <v>14.57006502301453</v>
       </c>
       <c r="C8">
-        <v>6.356161069503877</v>
+        <v>6.397051568913438</v>
       </c>
       <c r="D8">
-        <v>4.015378652415694</v>
+        <v>4.272257134039881</v>
       </c>
       <c r="E8">
-        <v>6.991607945295251</v>
+        <v>6.946694273434181</v>
       </c>
       <c r="F8">
-        <v>29.90236948738453</v>
+        <v>28.23461966736518</v>
       </c>
       <c r="G8">
-        <v>38.61871025413057</v>
+        <v>36.12038924319557</v>
       </c>
       <c r="H8">
-        <v>3.796431631472979</v>
+        <v>3.565133071519389</v>
       </c>
       <c r="I8">
-        <v>4.494357651129337</v>
+        <v>4.204896952305679</v>
       </c>
       <c r="J8">
-        <v>12.983099907973</v>
+        <v>12.23574335878364</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>5.829894270352341</v>
+        <v>15.50786925283925</v>
       </c>
       <c r="M8">
-        <v>11.61511651880197</v>
+        <v>14.17375962485836</v>
       </c>
       <c r="N8">
-        <v>6.448174652747224</v>
+        <v>5.722493004687174</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.42020678998018</v>
       </c>
       <c r="P8">
-        <v>14.96993838862613</v>
+        <v>6.783462819886514</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>14.48724137148391</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.45079524393755</v>
+        <v>16.51742462934064</v>
       </c>
       <c r="C9">
-        <v>7.023560569230644</v>
+        <v>7.28107484568816</v>
       </c>
       <c r="D9">
-        <v>4.392980368846148</v>
+        <v>4.681708622469842</v>
       </c>
       <c r="E9">
-        <v>7.426200614092965</v>
+        <v>7.338743094734677</v>
       </c>
       <c r="F9">
-        <v>31.2770312962966</v>
+        <v>29.30636385669667</v>
       </c>
       <c r="G9">
-        <v>40.67212150337279</v>
+        <v>37.58518154572212</v>
       </c>
       <c r="H9">
-        <v>3.247045367812808</v>
+        <v>3.064557433460659</v>
       </c>
       <c r="I9">
-        <v>4.042830803905898</v>
+        <v>3.810949245796434</v>
       </c>
       <c r="J9">
-        <v>13.20454499459174</v>
+        <v>12.43139861590423</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>5.984964189999626</v>
+        <v>15.45061549536536</v>
       </c>
       <c r="M9">
-        <v>13.12493201190256</v>
+        <v>14.57552853855041</v>
       </c>
       <c r="N9">
-        <v>6.91081409910849</v>
+        <v>5.852178219154917</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.91371387428631</v>
       </c>
       <c r="P9">
-        <v>14.66932902880798</v>
+        <v>7.26615227179647</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>14.15614744968319</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.76212354426037</v>
+        <v>17.72173747920406</v>
       </c>
       <c r="C10">
-        <v>7.512541513556833</v>
+        <v>7.87951719207638</v>
       </c>
       <c r="D10">
-        <v>4.631113185123689</v>
+        <v>4.965053268539924</v>
       </c>
       <c r="E10">
-        <v>7.64473246866112</v>
+        <v>7.538762281965555</v>
       </c>
       <c r="F10">
-        <v>32.09083144355144</v>
+        <v>29.82046810588803</v>
       </c>
       <c r="G10">
-        <v>41.88112182948591</v>
+        <v>38.76684685662693</v>
       </c>
       <c r="H10">
-        <v>2.894410703960652</v>
+        <v>2.749067853597024</v>
       </c>
       <c r="I10">
-        <v>3.744565650040658</v>
+        <v>3.556789081884205</v>
       </c>
       <c r="J10">
-        <v>13.32242850190675</v>
+        <v>12.29204140896357</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.061637566753533</v>
+        <v>15.27278532969814</v>
       </c>
       <c r="M10">
-        <v>14.13643005430063</v>
+        <v>14.81859034783797</v>
       </c>
       <c r="N10">
-        <v>7.16511443881801</v>
+        <v>5.912997199291721</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.95121485111875</v>
       </c>
       <c r="P10">
-        <v>14.42475292597759</v>
+        <v>7.531216984955627</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>13.8866112710163</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.7980853540052</v>
+        <v>17.74139221017487</v>
       </c>
       <c r="C11">
-        <v>7.910715009198229</v>
+        <v>8.240653963833051</v>
       </c>
       <c r="D11">
-        <v>4.510914629248549</v>
+        <v>4.885108444344516</v>
       </c>
       <c r="E11">
-        <v>7.081030232078891</v>
+        <v>7.001933341476418</v>
       </c>
       <c r="F11">
-        <v>30.89870800847005</v>
+        <v>28.50212233618117</v>
       </c>
       <c r="G11">
-        <v>40.14443882248923</v>
+        <v>37.88419925425425</v>
       </c>
       <c r="H11">
-        <v>3.583057881400321</v>
+        <v>3.477828783186306</v>
       </c>
       <c r="I11">
-        <v>3.685572392674964</v>
+        <v>3.51605949524756</v>
       </c>
       <c r="J11">
-        <v>12.93173072948758</v>
+        <v>11.49309858948191</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.879288047797177</v>
+        <v>14.54046109817175</v>
       </c>
       <c r="M11">
-        <v>14.37488405960148</v>
+        <v>14.26741052265127</v>
       </c>
       <c r="N11">
-        <v>6.660549428862349</v>
+        <v>5.758138879391639</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.13105689552227</v>
       </c>
       <c r="P11">
-        <v>14.11295175337261</v>
+        <v>7.005232453084091</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>13.62958732388824</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.57888375378947</v>
+        <v>17.546434765087</v>
       </c>
       <c r="C12">
-        <v>8.134149126877945</v>
+        <v>8.419941242651001</v>
       </c>
       <c r="D12">
-        <v>4.351111578556457</v>
+        <v>4.733636081679803</v>
       </c>
       <c r="E12">
-        <v>6.637032463608744</v>
+        <v>6.577017218950218</v>
       </c>
       <c r="F12">
-        <v>29.75658294983838</v>
+        <v>27.38166338462883</v>
       </c>
       <c r="G12">
-        <v>38.4861094702611</v>
+        <v>36.73103217543292</v>
       </c>
       <c r="H12">
-        <v>4.742551617993797</v>
+        <v>4.664016619482856</v>
       </c>
       <c r="I12">
-        <v>3.679478875478911</v>
+        <v>3.512314591405665</v>
       </c>
       <c r="J12">
-        <v>12.59084215807583</v>
+        <v>11.03084615017441</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.769119581342812</v>
+        <v>14.03227235275938</v>
       </c>
       <c r="M12">
-        <v>14.35164426984792</v>
+        <v>13.79959854288522</v>
       </c>
       <c r="N12">
-        <v>6.189151244595972</v>
+        <v>5.675789758566877</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.08844561449022</v>
       </c>
       <c r="P12">
-        <v>13.93145872657014</v>
+        <v>6.513855369912876</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>13.50718185377858</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.11854973862932</v>
+        <v>17.15600283348226</v>
       </c>
       <c r="C13">
-        <v>8.260784053327315</v>
+        <v>8.512953000308105</v>
       </c>
       <c r="D13">
-        <v>4.154161624671119</v>
+        <v>4.510708002523653</v>
       </c>
       <c r="E13">
-        <v>6.264916052577331</v>
+        <v>6.220360033433813</v>
       </c>
       <c r="F13">
-        <v>28.52245484082954</v>
+        <v>26.32733210063761</v>
       </c>
       <c r="G13">
-        <v>36.681489263737</v>
+        <v>35.05589520676959</v>
       </c>
       <c r="H13">
-        <v>6.048263613367944</v>
+        <v>5.981810423208263</v>
       </c>
       <c r="I13">
-        <v>3.726859825025163</v>
+        <v>3.55117542711335</v>
       </c>
       <c r="J13">
-        <v>12.25006289105198</v>
+        <v>10.83160708381867</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.705662647855907</v>
+        <v>13.63956255257177</v>
       </c>
       <c r="M13">
-        <v>14.11980093666309</v>
+        <v>13.36171612919324</v>
       </c>
       <c r="N13">
-        <v>5.719984075976668</v>
+        <v>5.641083745710644</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>13.87867151633929</v>
       </c>
       <c r="P13">
-        <v>13.82985160465471</v>
+        <v>6.024998204393132</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>13.46814138697997</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.67590932095842</v>
+        <v>16.78345847336579</v>
       </c>
       <c r="C14">
-        <v>8.31219628491645</v>
+        <v>8.545472986145619</v>
       </c>
       <c r="D14">
-        <v>3.999044081179858</v>
+        <v>4.322742933444461</v>
       </c>
       <c r="E14">
-        <v>6.05735203677564</v>
+        <v>6.024444078492739</v>
       </c>
       <c r="F14">
-        <v>27.60720343194786</v>
+        <v>25.60540662363625</v>
       </c>
       <c r="G14">
-        <v>35.33289317817299</v>
+        <v>33.64372441413538</v>
       </c>
       <c r="H14">
-        <v>7.006069876618572</v>
+        <v>6.94351808004859</v>
       </c>
       <c r="I14">
-        <v>3.786616745571689</v>
+        <v>3.600626015838949</v>
       </c>
       <c r="J14">
-        <v>12.01002429465929</v>
+        <v>10.79075387039677</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.690460835065968</v>
+        <v>13.40670382551603</v>
       </c>
       <c r="M14">
-        <v>13.85887252403618</v>
+        <v>13.06690656982825</v>
       </c>
       <c r="N14">
-        <v>5.39941627616978</v>
+        <v>5.645147509166386</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>13.65177364685757</v>
       </c>
       <c r="P14">
-        <v>13.79673833614951</v>
+        <v>5.690587893532716</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>13.47595191747256</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.50902832869982</v>
+        <v>16.64286623458479</v>
       </c>
       <c r="C15">
-        <v>8.309287713889809</v>
+        <v>8.54061006831399</v>
       </c>
       <c r="D15">
-        <v>3.954837270700835</v>
+        <v>4.264378057504782</v>
       </c>
       <c r="E15">
-        <v>6.011667060828092</v>
+        <v>5.982353466836241</v>
       </c>
       <c r="F15">
-        <v>27.35528189887172</v>
+        <v>25.42953703868225</v>
       </c>
       <c r="G15">
-        <v>34.95609082641704</v>
+        <v>33.18937689752509</v>
       </c>
       <c r="H15">
-        <v>7.234339281963533</v>
+        <v>7.171379560739795</v>
       </c>
       <c r="I15">
-        <v>3.816883420527427</v>
+        <v>3.626732625621176</v>
       </c>
       <c r="J15">
-        <v>11.94862473190589</v>
+        <v>10.82030039814878</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.688777493456597</v>
+        <v>13.3628423037676</v>
       </c>
       <c r="M15">
-        <v>13.74822420349657</v>
+        <v>12.99569985786926</v>
       </c>
       <c r="N15">
-        <v>5.321372504723676</v>
+        <v>5.648131207556541</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>13.55753414381555</v>
       </c>
       <c r="P15">
-        <v>13.80176538336818</v>
+        <v>5.609353400420134</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>13.49045008979621</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.01788200353326</v>
+        <v>16.22682335189819</v>
       </c>
       <c r="C16">
-        <v>8.097544802343741</v>
+        <v>8.343722597752075</v>
       </c>
       <c r="D16">
-        <v>3.888226701765953</v>
+        <v>4.147006033718138</v>
       </c>
       <c r="E16">
-        <v>5.982467375255359</v>
+        <v>5.95810807263388</v>
       </c>
       <c r="F16">
-        <v>27.21093430719429</v>
+        <v>25.52290217052853</v>
       </c>
       <c r="G16">
-        <v>34.72055469484165</v>
+        <v>32.45293329384833</v>
       </c>
       <c r="H16">
-        <v>7.078941365577378</v>
+        <v>7.003140360395947</v>
       </c>
       <c r="I16">
-        <v>3.939413361908375</v>
+        <v>3.728551689041946</v>
       </c>
       <c r="J16">
-        <v>11.95859441515388</v>
+        <v>11.19229626960902</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5.664605025434344</v>
+        <v>13.52887835727838</v>
       </c>
       <c r="M16">
-        <v>13.31494163808628</v>
+        <v>13.04519221505458</v>
       </c>
       <c r="N16">
-        <v>5.298439492918178</v>
+        <v>5.624876117499433</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.19207096349654</v>
       </c>
       <c r="P16">
-        <v>13.92072440202714</v>
+        <v>5.589220965016255</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>13.60513925759599</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.88073741594035</v>
+        <v>16.10208964750191</v>
       </c>
       <c r="C17">
-        <v>7.903612627306773</v>
+        <v>8.162237345994068</v>
       </c>
       <c r="D17">
-        <v>3.921984297155404</v>
+        <v>4.165097335234647</v>
       </c>
       <c r="E17">
-        <v>6.059876456931591</v>
+        <v>6.030341221552834</v>
       </c>
       <c r="F17">
-        <v>27.5920371882453</v>
+        <v>25.96146519201956</v>
       </c>
       <c r="G17">
-        <v>35.26731507602891</v>
+        <v>32.72823216960614</v>
       </c>
       <c r="H17">
-        <v>6.428892492952701</v>
+        <v>6.338894222207414</v>
       </c>
       <c r="I17">
-        <v>4.002462231702941</v>
+        <v>3.781968593151359</v>
       </c>
       <c r="J17">
-        <v>12.0937481327629</v>
+        <v>11.46791933503714</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>5.648904518722867</v>
+        <v>13.78035772535893</v>
       </c>
       <c r="M17">
-        <v>13.15107904202409</v>
+        <v>13.22667679390969</v>
       </c>
       <c r="N17">
-        <v>5.449904382848613</v>
+        <v>5.600420621065218</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.02426763610146</v>
       </c>
       <c r="P17">
-        <v>14.02832553790712</v>
+        <v>5.749714860025918</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>13.69242477270892</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.05223653725211</v>
+        <v>16.24253876426054</v>
       </c>
       <c r="C18">
-        <v>7.694837308670683</v>
+        <v>7.9739774376631</v>
       </c>
       <c r="D18">
-        <v>4.042906551707349</v>
+        <v>4.289549313438874</v>
       </c>
       <c r="E18">
-        <v>6.297453297121707</v>
+        <v>6.251665123609099</v>
       </c>
       <c r="F18">
-        <v>28.49457296547298</v>
+        <v>26.80891743659777</v>
       </c>
       <c r="G18">
-        <v>36.59260293230074</v>
+        <v>33.80836946157419</v>
       </c>
       <c r="H18">
-        <v>5.332774650721959</v>
+        <v>5.222531029034124</v>
       </c>
       <c r="I18">
-        <v>4.010452168330449</v>
+        <v>3.786591428773935</v>
       </c>
       <c r="J18">
-        <v>12.36088016331984</v>
+        <v>11.76852321149919</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>5.670064076657299</v>
+        <v>14.17223517789204</v>
       </c>
       <c r="M18">
-        <v>13.17085597430514</v>
+        <v>13.56892780986296</v>
       </c>
       <c r="N18">
-        <v>5.783817414266211</v>
+        <v>5.602628510645983</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.02766958416726</v>
       </c>
       <c r="P18">
-        <v>14.15282466175074</v>
+        <v>6.099002348868459</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>13.77883217579512</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.42292728461163</v>
+        <v>16.55567705253252</v>
       </c>
       <c r="C19">
-        <v>7.525598029285965</v>
+        <v>7.835443839762746</v>
       </c>
       <c r="D19">
-        <v>4.231283661757034</v>
+        <v>4.492642556315601</v>
       </c>
       <c r="E19">
-        <v>6.71770723944694</v>
+        <v>6.64876069204735</v>
       </c>
       <c r="F19">
-        <v>29.69633906857212</v>
+        <v>27.88699389774126</v>
       </c>
       <c r="G19">
-        <v>38.34931441542145</v>
+        <v>35.31324800862573</v>
       </c>
       <c r="H19">
-        <v>4.116250823191265</v>
+        <v>3.978212472254738</v>
       </c>
       <c r="I19">
-        <v>3.98713162600066</v>
+        <v>3.768276608651552</v>
       </c>
       <c r="J19">
-        <v>12.69929434046024</v>
+        <v>12.08195371386919</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>5.762190026793189</v>
+        <v>14.63294029869432</v>
       </c>
       <c r="M19">
-        <v>13.32396827541893</v>
+        <v>13.99852414077181</v>
       </c>
       <c r="N19">
-        <v>6.266778677364759</v>
+        <v>5.667980068862778</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.16714861120655</v>
       </c>
       <c r="P19">
-        <v>14.29175955301306</v>
+        <v>6.600892333605622</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>13.86733629082498</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.37357068984599</v>
+        <v>17.37925206583347</v>
       </c>
       <c r="C20">
-        <v>7.428090979068538</v>
+        <v>7.794132597077994</v>
       </c>
       <c r="D20">
-        <v>4.581182373613143</v>
+        <v>4.887288262959085</v>
       </c>
       <c r="E20">
-        <v>7.576638370342987</v>
+        <v>7.471391843347991</v>
       </c>
       <c r="F20">
-        <v>31.77110613869757</v>
+        <v>29.64828020029166</v>
       </c>
       <c r="G20">
-        <v>41.38529899978771</v>
+        <v>38.07812766302956</v>
       </c>
       <c r="H20">
-        <v>2.989324270033535</v>
+        <v>2.831845971112588</v>
       </c>
       <c r="I20">
-        <v>3.84815899320386</v>
+        <v>3.651508488103133</v>
       </c>
       <c r="J20">
-        <v>13.25561307512765</v>
+        <v>12.4403114574995</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.034051805952617</v>
+        <v>15.29015553707183</v>
       </c>
       <c r="M20">
-        <v>13.84804678165158</v>
+        <v>14.72249708907801</v>
       </c>
       <c r="N20">
-        <v>7.108331537942984</v>
+        <v>5.891860181268476</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.68690332043032</v>
       </c>
       <c r="P20">
-        <v>14.46987150479039</v>
+        <v>7.472222031624357</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>13.95101694237453</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.43835162452453</v>
+        <v>18.2681421641644</v>
       </c>
       <c r="C21">
-        <v>7.756652968769247</v>
+        <v>8.106699105278278</v>
       </c>
       <c r="D21">
-        <v>4.79732149018459</v>
+        <v>5.222414364914657</v>
       </c>
       <c r="E21">
-        <v>7.867309856487546</v>
+        <v>7.769845737072653</v>
       </c>
       <c r="F21">
-        <v>32.68741183217814</v>
+        <v>29.977436272439</v>
       </c>
       <c r="G21">
-        <v>42.74099756601915</v>
+        <v>40.47705529021221</v>
       </c>
       <c r="H21">
-        <v>2.683947186545441</v>
+        <v>2.565569319037551</v>
       </c>
       <c r="I21">
-        <v>3.610188225774588</v>
+        <v>3.457387250899287</v>
       </c>
       <c r="J21">
-        <v>13.43395985826536</v>
+        <v>11.6798252270377</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.137726898524045</v>
+        <v>15.12264847049553</v>
       </c>
       <c r="M21">
-        <v>14.70554111163533</v>
+        <v>14.888397424321</v>
       </c>
       <c r="N21">
-        <v>7.409848792361704</v>
+        <v>5.970226477963281</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.41334255283988</v>
       </c>
       <c r="P21">
-        <v>14.32468737760874</v>
+        <v>7.779897172491457</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>13.73401784988287</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.09626624492731</v>
+        <v>18.81207761312428</v>
       </c>
       <c r="C22">
-        <v>7.960266351318948</v>
+        <v>8.290407722486727</v>
       </c>
       <c r="D22">
-        <v>4.916696586167218</v>
+        <v>5.422785381881579</v>
       </c>
       <c r="E22">
-        <v>8.014990917156172</v>
+        <v>7.927066252876299</v>
       </c>
       <c r="F22">
-        <v>33.23305445539427</v>
+        <v>30.12580372884319</v>
       </c>
       <c r="G22">
-        <v>43.55683450355967</v>
+        <v>42.08990577696517</v>
       </c>
       <c r="H22">
-        <v>2.499764455839582</v>
+        <v>2.406392667901949</v>
       </c>
       <c r="I22">
-        <v>3.450934484604406</v>
+        <v>3.324036452591353</v>
       </c>
       <c r="J22">
-        <v>13.54038855289973</v>
+        <v>11.1590452226826</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.191957708325649</v>
+        <v>14.99116444411517</v>
       </c>
       <c r="M22">
-        <v>15.23863550715517</v>
+        <v>14.98093650157467</v>
       </c>
       <c r="N22">
-        <v>7.56098557085557</v>
+        <v>6.009739573891393</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>14.85234951303052</v>
       </c>
       <c r="P22">
-        <v>14.2252643915721</v>
+        <v>7.933635033312044</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>13.58790802671125</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.76578645862656</v>
+        <v>18.55266074965719</v>
       </c>
       <c r="C23">
-        <v>7.837178021861437</v>
+        <v>8.188635764713778</v>
       </c>
       <c r="D23">
-        <v>4.848617205893651</v>
+        <v>5.300426322066147</v>
       </c>
       <c r="E23">
-        <v>7.939414110069302</v>
+        <v>7.842352457709523</v>
       </c>
       <c r="F23">
-        <v>32.97827573035229</v>
+        <v>30.12606487221384</v>
       </c>
       <c r="G23">
-        <v>43.18341465798333</v>
+        <v>41.13008530412762</v>
       </c>
       <c r="H23">
-        <v>2.596332004067362</v>
+        <v>2.488566479164052</v>
       </c>
       <c r="I23">
-        <v>3.525154959032367</v>
+        <v>3.381492937955983</v>
       </c>
       <c r="J23">
-        <v>13.49569349544804</v>
+        <v>11.53715247217616</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.165570781411064</v>
+        <v>15.10050871952286</v>
       </c>
       <c r="M23">
-        <v>14.96020872161702</v>
+        <v>14.97270894512799</v>
       </c>
       <c r="N23">
-        <v>7.476002987040956</v>
+        <v>5.99171477603989</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.63629677530264</v>
       </c>
       <c r="P23">
-        <v>14.28499883891514</v>
+        <v>7.848288314822742</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>13.6753172968921</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.43250422802778</v>
+        <v>17.43231924625491</v>
       </c>
       <c r="C24">
-        <v>7.384222090620121</v>
+        <v>7.74776348791582</v>
       </c>
       <c r="D24">
-        <v>4.591651250942645</v>
+        <v>4.898812118512013</v>
       </c>
       <c r="E24">
-        <v>7.641743862131427</v>
+        <v>7.53397024497288</v>
       </c>
       <c r="F24">
-        <v>31.95283967585921</v>
+        <v>29.81715969600527</v>
       </c>
       <c r="G24">
-        <v>41.66385537407105</v>
+        <v>38.31865417026341</v>
       </c>
       <c r="H24">
-        <v>2.971831209382261</v>
+        <v>2.814521825763657</v>
       </c>
       <c r="I24">
-        <v>3.830420230424529</v>
+        <v>3.631140951070471</v>
       </c>
       <c r="J24">
-        <v>13.31140454494256</v>
+        <v>12.49760213406062</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.059464329349877</v>
+        <v>15.37626990607633</v>
       </c>
       <c r="M24">
-        <v>13.86288353215246</v>
+        <v>14.80128565244273</v>
       </c>
       <c r="N24">
-        <v>7.154971075042164</v>
+        <v>5.913814725218231</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.70078994649403</v>
       </c>
       <c r="P24">
-        <v>14.50178613251055</v>
+        <v>7.521011955705956</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>13.9740009715513</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.88365618804245</v>
+        <v>15.99181261840586</v>
       </c>
       <c r="C25">
-        <v>6.872610383353692</v>
+        <v>7.08773016724265</v>
       </c>
       <c r="D25">
-        <v>4.30116633808902</v>
+        <v>4.574540436092688</v>
       </c>
       <c r="E25">
-        <v>7.306835508732563</v>
+        <v>7.228933099882265</v>
       </c>
       <c r="F25">
-        <v>30.846585973051</v>
+        <v>28.98668523628159</v>
       </c>
       <c r="G25">
-        <v>40.01807932984808</v>
+        <v>37.00618330990752</v>
       </c>
       <c r="H25">
-        <v>3.393796980680895</v>
+        <v>3.197277659566337</v>
       </c>
       <c r="I25">
-        <v>4.175478747993779</v>
+        <v>3.929793695062874</v>
       </c>
       <c r="J25">
-        <v>13.12335604872534</v>
+        <v>12.41960162939734</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>5.940260497386706</v>
+        <v>15.44693812379934</v>
       </c>
       <c r="M25">
-        <v>12.72599437722184</v>
+        <v>14.43473163110902</v>
       </c>
       <c r="N25">
-        <v>6.795592621436504</v>
+        <v>5.815299324980263</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.52802393133058</v>
       </c>
       <c r="P25">
-        <v>14.73931362213124</v>
+        <v>7.145566391992156</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>14.2402738929933</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
